--- a/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>MSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,169 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43344</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42980</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42245</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41881</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41517</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41153</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40782</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3192400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3363800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3203900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2887700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2863500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2910400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2787100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2457600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2355900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2021800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1849100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1931800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1810900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1601500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1574600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1593800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1500900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1339100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1277700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1080900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1343300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1432000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1393000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1286200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1288900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1316600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1286300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1118500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1078200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>940900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,23 +910,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -927,9 +946,12 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,9 +982,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2841700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2963800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2783300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2508700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2487500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2530900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2403900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2072100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1943700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1672000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>350700</v>
+      </c>
+      <c r="E18" s="3">
         <v>400000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>420600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>379000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>376000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>379500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>383200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>385500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>412200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>349800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,173 +1086,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E21" s="3">
         <v>465400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>483800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>443300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>449500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>449200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>448300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>435100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>447100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>378700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E22" s="3">
         <v>16900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E23" s="3">
         <v>383100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>406200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>368000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>371700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>373100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>379500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>383400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>412100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>349300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E24" s="3">
         <v>94300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>117400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>136600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>140500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>141800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>143500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>145400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>153100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>130500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>288800</v>
+        <v>251800</v>
       </c>
       <c r="E26" s="3">
         <v>288800</v>
       </c>
       <c r="F26" s="3">
+        <v>288800</v>
+      </c>
+      <c r="G26" s="3">
         <v>231400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>231200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>231300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>236100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>238000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>259000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>218800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E27" s="3">
         <v>288700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>288400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>230800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>230300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>230000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>234400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>236200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>256900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>216900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,20 +1407,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>40500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1380,12 +1440,15 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E33" s="3">
         <v>288700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>328800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>230800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>230300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>230000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>234400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>236200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>256900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>216900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E35" s="3">
         <v>288700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>328800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>230800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>230300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>230000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>234400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>236200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>256900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>216900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43344</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42980</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42245</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41881</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41517</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41153</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40782</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,41 +1735,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E41" s="3">
         <v>32300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1715,141 +1804,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>491700</v>
+      </c>
+      <c r="E43" s="3">
         <v>541100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>523900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>471800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>392500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>403500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>382800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>345400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>297200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>266500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>543100</v>
+      </c>
+      <c r="E44" s="3">
         <v>559100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>518500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>465000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>444200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>506600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>449800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>419000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>393400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>344900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E45" s="3">
         <v>67100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>52700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>91900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>81700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1237800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1199600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1147500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1005600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>981500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1032100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>961400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>893500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>920100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>758400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1880,75 +1984,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E48" s="3">
         <v>310900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>311700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>316300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>320500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>291200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>294300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>251500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>174600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>148800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>782500</v>
+      </c>
+      <c r="E49" s="3">
         <v>793900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>797700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>744200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>729400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>743400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>767600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>785600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>340300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>325700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>33500</v>
       </c>
       <c r="H52" s="3">
         <v>33500</v>
       </c>
       <c r="I52" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J52" s="3">
         <v>37300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2382400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2311200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2288700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2098900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2065000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2060700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1943000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1444900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1244400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2271,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E57" s="3">
         <v>160100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>145100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>121300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>110600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>114300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>116300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>113600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>96600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>95500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E58" s="3">
         <v>175500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>224100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>332000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>267100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>213200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>96800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E59" s="3">
         <v>111400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>121300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>104500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>96100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>85800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>408700</v>
+      </c>
+      <c r="E60" s="3">
         <v>446900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>490500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>557700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>478600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>422000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>309200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>213600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>172200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E61" s="3">
         <v>266400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>311200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>201000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>339800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>214100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>240200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>241600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E62" s="3">
         <v>114000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>99700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>115100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>148200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>131200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>112800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>97500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>79100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1067500</v>
+      </c>
+      <c r="E66" s="3">
         <v>832700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>901500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>873800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>966600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>767300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>662200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>552600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>257800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>251300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>749500</v>
+      </c>
+      <c r="E72" s="3">
         <v>946700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1325800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1168800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1040100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1232400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1286100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1132900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>971000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>775100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1314900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1478500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1387300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1225100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1098400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1332900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1398600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1390400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1187100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>993100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43344</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42980</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42245</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41881</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41517</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41153</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40782</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E81" s="3">
         <v>288700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>328800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>230800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>230300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>230000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>234400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>236200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>256900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>216900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E83" s="3">
         <v>65400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>396700</v>
+      </c>
+      <c r="E89" s="3">
         <v>328400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>339700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>246800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>401100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>249800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>272400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>325400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>234300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>210000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-51800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-87900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-70600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-89300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-131900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-88900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-87900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-94200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-638000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-81100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-444200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-145700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-125400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-102200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-105800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-284200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-82600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-75900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-63000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-119300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-254600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-305600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-177600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-194700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-298400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-187000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-80600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-180800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-112600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>72500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>MSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,181 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E7" s="2">
         <v>44072</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43344</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42980</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42245</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41881</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41517</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41153</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40782</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3243200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3192400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3363800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3203900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2887700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2863500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2910400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2787100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2457600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2355900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2021800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1909700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1849100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1931800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1810900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1601500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1574600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1593800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1339100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1277700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1080900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1333500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1343300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1432000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1393000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1286200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1288900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1316600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1286300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1118500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1078200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>940900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +854,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,9 +890,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,26 +929,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E14" s="3">
         <v>10400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -949,9 +968,12 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,9 +1007,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2941500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2841700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2963800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2783300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2508700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2487500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2530900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2403900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2072100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1943700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1672000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>301800</v>
+      </c>
+      <c r="E18" s="3">
         <v>350700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>420600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>379000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>376000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>379500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>383200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>385500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>412200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>349800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,188 +1119,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>371700</v>
+      </c>
+      <c r="E21" s="3">
         <v>420000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>465400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>483800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>443300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>449500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>449200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>448300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>435100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>447100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>378700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E22" s="3">
         <v>16700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E23" s="3">
         <v>334300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>383100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>406200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>368000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>371700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>373100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>379500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>383400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>412100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>349300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E24" s="3">
         <v>82500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>94300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>117400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>136600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>140500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>141800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>143500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>145400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>153100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>130500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E26" s="3">
         <v>251800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>288800</v>
       </c>
       <c r="F26" s="3">
         <v>288800</v>
       </c>
       <c r="G26" s="3">
+        <v>288800</v>
+      </c>
+      <c r="H26" s="3">
         <v>231400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>231200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>231300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>236100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>238000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>259000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>218800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E27" s="3">
         <v>251100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>288700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>288400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>230800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>230300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>230000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>234400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>236200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>256900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>216900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,9 +1467,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,11 +1482,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>40500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1443,12 +1503,15 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E33" s="3">
         <v>251100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>288700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>328800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>230800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>230300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>230000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>234400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>236200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>256900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>216900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E35" s="3">
         <v>251100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>288700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>328800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>230800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>230300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>230000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>234400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>236200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>256900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>216900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E38" s="2">
         <v>44072</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43344</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42980</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42245</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41881</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41517</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41153</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40782</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,44 +1821,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E41" s="3">
         <v>125200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1807,153 +1896,168 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>560400</v>
+      </c>
+      <c r="E43" s="3">
         <v>491700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>541100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>523900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>471800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>392500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>403500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>382800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>345400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>297200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>266500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>624200</v>
+      </c>
+      <c r="E44" s="3">
         <v>543100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>559100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>518500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>465000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>444200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>506600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>449800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>419000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>393400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>344900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E45" s="3">
         <v>77700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>67100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>52700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>91900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1314200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1237800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1199600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1147500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1005600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>981500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1032100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>961400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>893500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>920100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>758400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1987,81 +2091,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>347400</v>
+      </c>
+      <c r="E48" s="3">
         <v>358200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>310900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>311700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>316300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>320500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>291200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>294300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>251500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>174600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>148800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>794600</v>
+      </c>
+      <c r="E49" s="3">
         <v>782500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>793900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>797700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>744200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>729400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>743400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>767600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>785600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>340300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>325700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>33500</v>
       </c>
       <c r="I52" s="3">
         <v>33500</v>
       </c>
       <c r="J52" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K52" s="3">
         <v>37300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2462100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2382400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2311200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2288700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2098900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2065000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2060700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1943000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1444900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1244400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,224 +2401,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E57" s="3">
         <v>125800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>160100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>145100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>121300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>110600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>114300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>116300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>113600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>96600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>95500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>202400</v>
+      </c>
+      <c r="E58" s="3">
         <v>122200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>175500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>224100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>332000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>267100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>213200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>96800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E59" s="3">
         <v>160700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>111400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>121300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>104500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>96100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>85800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>561900</v>
+      </c>
+      <c r="E60" s="3">
         <v>408700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>446900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>490500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>557700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>478600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>422000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>309200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>213600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>170500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>583600</v>
+      </c>
+      <c r="E61" s="3">
         <v>497000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>266400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>311200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>201000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>339800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>214100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>240200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>241600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E62" s="3">
         <v>156100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>114000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>99700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>115100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>148200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>131200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>112800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>97500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>85100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>79100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1311200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1067500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>832700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>901500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>873800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>966600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>767300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>662200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>552600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>257800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>251300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>532300</v>
+      </c>
+      <c r="E72" s="3">
         <v>749500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>946700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1325800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1168800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1040100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1232400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1286100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1132900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>971000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>775100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1150900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1314900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1478500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1387300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1225100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1098400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1332900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1398600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1390400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1187100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>993100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E80" s="2">
         <v>44072</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43344</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42980</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42245</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41881</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41517</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41153</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40782</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E81" s="3">
         <v>251100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>288700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>328800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>230800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>230300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>230000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>234400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>236200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>256900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>216900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E83" s="3">
         <v>69100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>65400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E89" s="3">
         <v>396700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>328400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>339700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>246800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>401100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>249800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>272400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>325400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>234300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>210000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-51800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-87900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-89300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-131900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-88900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-87900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-94200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-638000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-81100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,44 +3761,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-362700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-444200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-145700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-125400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-102200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-105800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-284200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-82600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-75900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-63000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-119300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-233700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-254600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-305600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-177600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-194700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-298400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-207000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-187000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-80600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-180800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
       </c>
       <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E102" s="3">
         <v>92900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-112600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>72500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>MSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44807</v>
+      </c>
+      <c r="E7" s="2">
         <v>44436</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44072</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43344</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42980</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42245</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41881</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41517</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41153</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40782</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3691900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3243200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3192400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3363800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3203900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2887700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2863500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2910400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2787100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2457600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2355900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2021800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2133600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1909700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1849100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1931800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1810900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1601500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1574600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1593800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1339100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1277700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1080900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1558200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1333500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1343300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1432000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1393000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1286200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1288900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1316600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1286300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1118500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1078200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>940900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,9 +907,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,29 +949,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E14" s="3">
         <v>37300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -971,9 +991,12 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1010,9 +1033,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3223200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2941500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2841700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2963800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2783300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2508700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2487500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2530900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2403900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2072100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1943700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1672000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>468700</v>
+      </c>
+      <c r="E18" s="3">
         <v>301800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>350700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>420600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>379000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>376000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>379500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>383200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>385500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>412200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>349800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,203 +1153,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>539100</v>
+      </c>
+      <c r="E21" s="3">
         <v>371700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>420000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>465400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>483800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>443300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>449500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>449200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>448300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>435100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>447100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>378700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E22" s="3">
         <v>14500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>451100</v>
+      </c>
+      <c r="E23" s="3">
         <v>288400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>334300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>383100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>406200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>368000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>371700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>373100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>379500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>383400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>412100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>349300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E24" s="3">
         <v>70400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>82500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>94300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>117400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>136600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>140500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>141800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>143500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>145400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>153100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>130500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E26" s="3">
         <v>217900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>251800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>288800</v>
       </c>
       <c r="G26" s="3">
         <v>288800</v>
       </c>
       <c r="H26" s="3">
+        <v>288800</v>
+      </c>
+      <c r="I26" s="3">
         <v>231400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>231200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>231300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>236100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>238000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>259000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>218800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E27" s="3">
         <v>216900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>251100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>288700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>288400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>230800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>230300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>230000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>234400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>236200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>256900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>216900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,9 +1528,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,11 +1546,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>40500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1506,12 +1567,15 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E33" s="3">
         <v>216900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>251100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>288700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>328800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>230800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>230300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>230000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>234400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>236200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>256900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>216900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E35" s="3">
         <v>216900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>251100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>288700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>328800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>230800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>230300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>230000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>234400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>236200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>256900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>216900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44807</v>
+      </c>
+      <c r="E38" s="2">
         <v>44436</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44072</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43344</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42980</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42245</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41881</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41517</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41153</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40782</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,47 +1908,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E41" s="3">
         <v>40500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>96000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1899,165 +1989,180 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>687600</v>
+      </c>
+      <c r="E43" s="3">
         <v>560400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>491700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>541100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>523900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>471800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>392500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>403500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>382800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>345400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>297200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>266500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>715600</v>
+      </c>
+      <c r="E44" s="3">
         <v>624200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>543100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>559100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>518500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>465000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>444200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>506600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>449800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>419000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>393400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>344900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E45" s="3">
         <v>89200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>77700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>67100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>58900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>52700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>91900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>73200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1543600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1314200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1237800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1199600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1147500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1005600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>981500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1032100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>961400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>893500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>920100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>758400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2094,87 +2199,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>351400</v>
+      </c>
+      <c r="E48" s="3">
         <v>347400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>358200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>310900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>311700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>316300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>320500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>291200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>294300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>251500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>174600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>148800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>824500</v>
+      </c>
+      <c r="E49" s="3">
         <v>794600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>782500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>793900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>797700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>744200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>729400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>743400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>767600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>785600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>340300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>325700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2367,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>33500</v>
       </c>
       <c r="J52" s="3">
         <v>33500</v>
       </c>
       <c r="K52" s="3">
+        <v>33500</v>
+      </c>
+      <c r="L52" s="3">
         <v>37300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2729400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2462100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2382400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2311200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2288700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2098900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2065000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2100200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2060700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1943000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1444900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1244400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,242 +2532,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E57" s="3">
         <v>186300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>125800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>160100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>145100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>121300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>110600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>114300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>116300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>96600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>95500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E58" s="3">
         <v>202400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>122200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>175500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>224100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>332000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>267100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>213200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>96800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E59" s="3">
         <v>173200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>160700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>111400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>121300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>104500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>96100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>85800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>725900</v>
+      </c>
+      <c r="E60" s="3">
         <v>561900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>408700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>446900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>490500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>557700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>478600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>422000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>309200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>213600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>170500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>468900</v>
+      </c>
+      <c r="E61" s="3">
         <v>583600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>497000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>266400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>311200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>201000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>339800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>214100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>240200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>241600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E62" s="3">
         <v>154700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>114000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>99700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>115100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>148200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>131200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>112800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>85100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>79100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1311200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1067500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>832700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>901500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>873800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>966600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>767300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>662200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>552600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>257800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>251300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3051,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>681300</v>
+      </c>
+      <c r="E72" s="3">
         <v>532300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>749500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>946700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1325800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1168800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1040100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1232400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1286100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1132900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>971000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>775100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1350400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1150900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1314900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1478500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1387300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1225100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1098400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1332900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1398600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1390400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1187100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>993100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44807</v>
+      </c>
+      <c r="E80" s="2">
         <v>44436</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44072</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43344</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42980</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42245</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41881</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41517</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41153</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40782</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E81" s="3">
         <v>216900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>251100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>288700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>328800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>230800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>230300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>230000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>234400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>236200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>256900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>216900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E83" s="3">
         <v>68800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>69100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>246200</v>
+      </c>
+      <c r="E89" s="3">
         <v>224500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>396700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>328400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>339700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>246800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>401100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>249800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>272400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>325400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>234300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>210000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3809,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-53700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-87900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-51400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-89300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-131900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-88900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-87900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-94200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-638000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-81100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,47 +3995,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-167400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-362700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-444200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-145700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-125400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-102200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-105800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-284200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-75900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-63000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-119300</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4160,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-148100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-233700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-254600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-305600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-177600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-194700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-298400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-207000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-187000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-80600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-180800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
       </c>
       <c r="K101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-84700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>92900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-112600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>72500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MSM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>MSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45171</v>
+      </c>
+      <c r="E7" s="2">
         <v>44807</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44436</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44072</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43344</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42980</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42245</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41881</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41517</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41153</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40782</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4009300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3691900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3243200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3192400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3363800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3203900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2887700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2863500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2910400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2787100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2457600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2355900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2021800</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2366300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2133600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1909700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1849100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1931800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1810900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1601500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1574600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1593800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1500900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1339100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1277700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1080900</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1558200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1333500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1343300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1432000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1393000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1286200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1288900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1316600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1286300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1118500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1078200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>940900</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +881,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,9 +923,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,32 +968,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E14" s="3">
         <v>15800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>37300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -994,9 +1013,12 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,9 +1058,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1052,92 +1077,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3525500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3223200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2941500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2841700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2963800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2783300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2508700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2487500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2530900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2403900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2072100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1943700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1672000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>483700</v>
+      </c>
+      <c r="E18" s="3">
         <v>468700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>301800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>350700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>420600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>379000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>376000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>379500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>383200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>385500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>412200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>349800</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1154,218 +1186,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>553800</v>
+      </c>
+      <c r="E21" s="3">
         <v>539100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>371700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>420000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>465400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>483800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>443300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>449500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>449200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>448300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>435100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>447100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>378700</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E22" s="3">
         <v>17600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>456200</v>
+      </c>
+      <c r="E23" s="3">
         <v>451100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>288400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>334300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>383100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>406200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>368000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>371700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>373100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>379500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>383400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>412100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>349300</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E24" s="3">
         <v>110700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>70400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>82500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>94300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>117400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>136600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>140500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>141800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>143500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>145400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>153100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>130500</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1405,93 +1453,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>343100</v>
+      </c>
+      <c r="E26" s="3">
         <v>340500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>217900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>251800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>288800</v>
       </c>
       <c r="H26" s="3">
         <v>288800</v>
       </c>
       <c r="I26" s="3">
+        <v>288800</v>
+      </c>
+      <c r="J26" s="3">
         <v>231400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>231200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>231300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>236100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>238000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>259000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>218800</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E27" s="3">
         <v>339800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>216900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>251100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>288700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>288400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>230800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>230300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>230000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>234400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>236200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>256900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>216900</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1531,9 +1588,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1549,11 +1609,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>40500</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1570,12 +1630,15 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1615,9 +1678,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1657,93 +1723,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E33" s="3">
         <v>339800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>216900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>251100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>288700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>328800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>230800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>230300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>230000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>234400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>236200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>256900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>216900</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1783,98 +1858,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E35" s="3">
         <v>339800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>216900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>251100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>288700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>328800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>230800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>230300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>230000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>234400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>236200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>256900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>216900</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45171</v>
+      </c>
+      <c r="E38" s="2">
         <v>44807</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44436</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44072</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43344</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42980</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42245</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41881</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41517</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41153</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40782</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1891,8 +1975,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1909,50 +1994,54 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E41" s="3">
         <v>43500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>168500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>96000</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1992,177 +2081,192 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>435400</v>
+      </c>
+      <c r="E43" s="3">
         <v>687600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>560400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>491700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>541100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>523900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>471800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>392500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>403500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>382800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>345400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>297200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>266500</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>726500</v>
+      </c>
+      <c r="E44" s="3">
         <v>715600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>624200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>543100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>559100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>518500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>465000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>444200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>506600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>449800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>419000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>393400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>344900</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E45" s="3">
         <v>96900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>89200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>77700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>67100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>52700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>91900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51100</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1317500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1543600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1314200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1237800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1199600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1147500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1005600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>981500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1032100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>961400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>893500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>920100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>758400</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2202,93 +2306,102 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>385600</v>
+      </c>
+      <c r="E48" s="3">
         <v>351400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>347400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>358200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>310900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>311700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>316300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>320500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>291200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>294300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>251500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>174600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>148800</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>828800</v>
+      </c>
+      <c r="E49" s="3">
         <v>824500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>794600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>782500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>793900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>797700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>744200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>729400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>743400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>767600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>785600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>340300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>325700</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2328,9 +2441,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2370,51 +2486,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E52" s="3">
         <v>9900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>33500</v>
       </c>
       <c r="K52" s="3">
         <v>33500</v>
       </c>
       <c r="L52" s="3">
+        <v>33500</v>
+      </c>
+      <c r="M52" s="3">
         <v>37300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11400</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2454,51 +2576,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2544100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2729400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2462100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2382400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2311200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2288700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2098900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2065000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2100200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2060700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1943000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1444900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1244400</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2515,8 +2643,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2533,260 +2662,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E57" s="3">
         <v>217400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>186300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>125800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>160100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>145100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>121300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>110600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>114300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>116300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>96600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>95500</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E58" s="3">
         <v>325700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>202400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>122200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>175500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>224100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>332000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>267100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>213200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>96800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E59" s="3">
         <v>182900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>173200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>111400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>121300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>104500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>96100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>85800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76700</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>649400</v>
+      </c>
+      <c r="E60" s="3">
         <v>725900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>561900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>408700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>446900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>490500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>557700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>478600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>422000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>309200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>213600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>170500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>172200</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E61" s="3">
         <v>468900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>583600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>497000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>266400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>311200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>201000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>339800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>214100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>240200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>241600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E62" s="3">
         <v>172300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>154700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>114000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>99700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>115100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>148200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>112800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>97500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>85100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>79100</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2826,9 +2974,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2868,9 +3019,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2910,51 +3064,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1379000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1311200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1067500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>832700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>901500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>873800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>966600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>767300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>662200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>552600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>257800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>251300</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2971,8 +3131,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3012,9 +3173,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3054,9 +3218,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3096,9 +3263,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3138,51 +3308,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E72" s="3">
         <v>681300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>532300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>749500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>946700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1325800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1168800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1040100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1232400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1286100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1132900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>971000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>775100</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3222,9 +3398,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3264,9 +3443,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3306,51 +3488,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1479200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1350400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1150900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1314900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1478500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1387300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1225100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1098400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1332900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1398600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1390400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1187100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>993100</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3390,98 +3578,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45171</v>
+      </c>
+      <c r="E80" s="2">
         <v>44807</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44436</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44072</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43344</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42980</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42245</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41881</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41517</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41153</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40782</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E81" s="3">
         <v>339800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>216900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>251100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>288700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>328800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>230800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>230300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>230000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>234400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>236200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>256900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>216900</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3498,50 +3695,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E83" s="3">
         <v>70400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>69100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29200</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3581,9 +3782,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3623,9 +3827,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3665,9 +3872,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3707,9 +3917,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3749,51 +3962,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>699600</v>
+      </c>
+      <c r="E89" s="3">
         <v>246200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>224500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>396700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>328400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>339700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>246800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>401100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>249800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>272400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>325400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>234300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>210000</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3810,50 +4029,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-53700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-87900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-51400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-70600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-89300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25500</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3893,9 +4116,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3935,51 +4161,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-75700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-131900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-88900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-87900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-94200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-638000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-81100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54400</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3996,50 +4228,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-176700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-167400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-362700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-444200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-145700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-125400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-102200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-105800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-284200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-75900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-63000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-119300</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4079,9 +4315,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4121,9 +4360,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4163,133 +4405,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-580400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-148100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-233700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-254600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-305600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-177600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-194700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-298400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-207000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-187000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-80600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-180800</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
       </c>
       <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-84700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>92900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-112600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>72500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25200</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
